--- a/leduytruong.html/structure_page_tai_lieu_html.xlsx
+++ b/leduytruong.html/structure_page_tai_lieu_html.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="tài liệu html" sheetId="1" r:id="rId1"/>
@@ -18,7 +18,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="60">
   <si>
     <t>#</t>
   </si>
@@ -196,6 +196,9 @@
   </si>
   <si>
     <t>Nắm vững kiến thức về Joomla Tự xây dựng các website chuyên nghiệp bằng templates</t>
+  </si>
+  <si>
+    <t>Trong bộ tài liệu này bao gồm tài liệu html</t>
   </si>
 </sst>
 </file>
@@ -869,7 +872,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
@@ -1595,8 +1598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:F22"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="18.75" x14ac:dyDescent="0.25"/>
@@ -1701,7 +1704,7 @@
         <v>56</v>
       </c>
       <c r="E9" s="6" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F9" s="6"/>
     </row>
